--- a/src/main/resources/ValidData.xlsx
+++ b/src/main/resources/ValidData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Depi_FinalProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DBF3AD-134D-4C8A-B2A0-5C30FCE7FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C531D-CE33-4830-83E6-E90149EE4679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2715" windowWidth="17835" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,12 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Mohamed</t>
   </si>
   <si>
     <t>Testing@testing.com</t>
+  </si>
+  <si>
+    <t>Testing#101</t>
+  </si>
+  <si>
+    <t>AboElsaad</t>
+  </si>
+  <si>
+    <t>Mohamed.inc</t>
+  </si>
+  <si>
+    <t>Shobra, Al beheira, Egypt</t>
+  </si>
+  <si>
+    <t>Beheira</t>
+  </si>
+  <si>
+    <t>Damanhur</t>
   </si>
 </sst>
 </file>
@@ -76,9 +95,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,12 +406,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC19A95F-1C71-4CC8-B760-CC24D2DDE51C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>22512</v>
+      </c>
+      <c r="I1">
+        <v>14316311831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DF5F82-2D3E-4FAF-B302-4934F3B1D91D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/ValidData.xlsx
+++ b/src/main/resources/ValidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Depi_FinalProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C531D-CE33-4830-83E6-E90149EE4679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A7ECEE-411F-42A9-8862-4F20C6C167E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,6 @@
     <t>Mohamed</t>
   </si>
   <si>
-    <t>Testing@testing.com</t>
-  </si>
-  <si>
-    <t>Testing#101</t>
-  </si>
-  <si>
     <t>AboElsaad</t>
   </si>
   <si>
@@ -51,6 +45,12 @@
   </si>
   <si>
     <t>Damanhur</t>
+  </si>
+  <si>
+    <t>Test$101$</t>
+  </si>
+  <si>
+    <t>Tests@ttestt.com</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,19 +387,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{31D050D9-B231-439F-8E0D-7009AAC8CDCC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -412,7 +412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
@@ -424,26 +424,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1">
         <v>22512</v>
@@ -461,25 +461,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DF5F82-2D3E-4FAF-B302-4934F3B1D91D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A68B06A2-B98A-426F-9CEA-F0520EE05DEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/ValidData.xlsx
+++ b/src/main/resources/ValidData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Depi_FinalProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A7ECEE-411F-42A9-8862-4F20C6C167E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C6054-F623-4E80-8416-F0791C1E8D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -95,9 +95,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -395,7 +394,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -408,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC19A95F-1C71-4CC8-B760-CC24D2DDE51C}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -424,7 +423,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
@@ -461,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DF5F82-2D3E-4FAF-B302-4934F3B1D91D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -470,10 +469,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/ValidData.xlsx
+++ b/src/main/resources/ValidData.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Depi_FinalProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C6054-F623-4E80-8416-F0791C1E8D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263DAB6-C788-439C-955C-8F32E83E3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Mohamed</t>
   </si>
@@ -95,9 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,26 +389,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1848D72-BF84-4D08-B328-823B56A0F36D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="1" t="str">
+        <f ca="1">"Tests@ttestt.com" &amp; TEXT(NOW(), "yyyy-mm-dd_hh-mm-ss")</f>
+        <v>Tests@ttestt.com2025-05-12 20-02-02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="Tests@ttestt.com" xr:uid="{ED93B557-8C9B-45FC-A9CA-26DE2231C2CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -460,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DF5F82-2D3E-4FAF-B302-4934F3B1D91D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/src/main/resources/ValidData.xlsx
+++ b/src/main/resources/ValidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Depi_FinalProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263DAB6-C788-439C-955C-8F32E83E3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5721A65-95EE-4D26-BAEB-CF9D4666CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Mohamed</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Test$101$</t>
   </si>
   <si>
-    <t>Tests@ttestt.com</t>
+    <t>Test@ttest.com</t>
   </si>
 </sst>
 </file>
@@ -104,10 +104,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,33 +388,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1848D72-BF84-4D08-B328-823B56A0F36D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="str">
-        <f ca="1">"Tests@ttestt.com" &amp; TEXT(NOW(), "yyyy-mm-dd_hh-mm-ss")</f>
-        <v>Tests@ttestt.com2025-05-12 20-02-02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="Tests@ttestt.com" xr:uid="{ED93B557-8C9B-45FC-A9CA-26DE2231C2CA}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{ED93B557-8C9B-45FC-A9CA-26DE2231C2CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -478,11 +473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DF5F82-2D3E-4FAF-B302-4934F3B1D91D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/ValidData.xlsx
+++ b/src/main/resources/ValidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Depi_FinalProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5721A65-95EE-4D26-BAEB-CF9D4666CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E733D-D64A-4524-B9EF-363C11440B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7095" yWindow="2460" windowWidth="17835" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
